--- a/block.xlsx
+++ b/block.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nhan\Documents\Python Notebook\ProjectSQLPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60783522-C458-49E0-B927-945176237C28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D042555-5F1E-4D04-9A03-F3BCB80CEE32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="23070" windowHeight="13500" xr2:uid="{17B1EA2C-8A24-4FDF-8A73-AB198300099E}"/>
+    <workbookView xWindow="960" yWindow="30" windowWidth="23040" windowHeight="13470" xr2:uid="{17B1EA2C-8A24-4FDF-8A73-AB198300099E}"/>
   </bookViews>
   <sheets>
     <sheet name="BLOCK" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BLOCK!$A$1:$C$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BLOCK!$A$1:$C$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="68">
   <si>
     <t>ITEM</t>
   </si>
@@ -194,9 +194,6 @@
     <t>SM_FPD3-3030T_002</t>
   </si>
   <si>
-    <t>SM_SB-10A_101</t>
-  </si>
-  <si>
     <t>SM_SSPL-24V_101</t>
   </si>
   <si>
@@ -233,10 +230,16 @@
     <t>12/11/2025, 15:11:24</t>
   </si>
   <si>
-    <t>04/12/2025, 08:04:58</t>
-  </si>
-  <si>
     <t>12.01.2026</t>
+  </si>
+  <si>
+    <t>SM_RPL-24V_101</t>
+  </si>
+  <si>
+    <t>26.01.2026</t>
+  </si>
+  <si>
+    <t>SM_RPL-6SV_101</t>
   </si>
 </sst>
 </file>
@@ -738,13 +741,13 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:C826"/>
+  <dimension ref="A1:C825"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A41" sqref="A41"/>
+      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1120,84 +1123,84 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="8" t="s">
-        <v>65</v>
+      <c r="C40" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>3</v>
@@ -1207,8 +1210,15 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
+      <c r="A42" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B43" s="2"/>
@@ -4342,12 +4352,8 @@
       <c r="B825" s="2"/>
       <c r="C825" s="2"/>
     </row>
-    <row r="826" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B826" s="2"/>
-      <c r="C826" s="2"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:C40" xr:uid="{7BCE3CB0-9719-4D3D-841F-FA0514587232}"/>
+  <autoFilter ref="A1:C42" xr:uid="{7BCE3CB0-9719-4D3D-841F-FA0514587232}"/>
   <conditionalFormatting sqref="A26 A2:A3 A5:A23 A28:A1048576">
     <cfRule type="expression" dxfId="7" priority="22">
       <formula>ISNUMBER(SEARCH("FLAG", $O2))</formula>
